--- a/bin/xlsx/Item.xlsx
+++ b/bin/xlsx/Item.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\shoot\bin\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
   <si>
     <t>singlePlusMax</t>
   </si>
@@ -36,12 +41,6 @@
     <t>unlockRewardNum</t>
   </si>
   <si>
-    <t>showType</t>
-  </si>
-  <si>
-    <t>secondType</t>
-  </si>
-  <si>
     <t>totalPlusMax</t>
   </si>
   <si>
@@ -105,18 +104,9 @@
     <t>useActions</t>
   </si>
   <si>
-    <t>prePropShowType</t>
-  </si>
-  <si>
     <t>passEnterBag</t>
   </si>
   <si>
-    <t>useCostItemNum</t>
-  </si>
-  <si>
-    <t>progressBarID</t>
-  </si>
-  <si>
     <t>道具id</t>
   </si>
   <si>
@@ -132,12 +122,6 @@
     <t>道具解锁的奖励数目</t>
   </si>
   <si>
-    <t>展示类型</t>
-  </si>
-  <si>
-    <t>第二类型</t>
-  </si>
-  <si>
     <t>单组叠加上限</t>
   </si>
   <si>
@@ -204,16 +188,7 @@
     <t>使用功能(tool用)</t>
   </si>
   <si>
-    <t>预设道具出现类型</t>
-  </si>
-  <si>
     <t>是否跳过进包阶段(直接使用,tool用)</t>
-  </si>
-  <si>
-    <t>是否消耗数目(tool用)</t>
-  </si>
-  <si>
-    <t>读条ID</t>
   </si>
   <si>
     <t>int</t>
@@ -255,14 +230,26 @@
   </si>
   <si>
     <t>int[][]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>useType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,6 +283,13 @@
       <name val="宋体"/>
       <family val="1"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -339,7 +333,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -365,6 +359,7 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -372,11 +367,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -418,7 +421,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -450,9 +453,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -484,6 +488,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -659,50 +664,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA4" sqref="AA4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.5" customWidth="1"/>
-    <col min="30" max="30" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="21.125" customWidth="1"/>
-    <col min="33" max="33" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.5" customWidth="1"/>
+    <col min="29" max="29" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -715,335 +716,299 @@
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="D3" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="E3" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" t="s">
         <v>32</v>
       </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V3" t="s">
+        <v>48</v>
+      </c>
+      <c r="W3" t="s">
+        <v>49</v>
+      </c>
+      <c r="X3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="3" spans="1:33">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O3" t="s">
-        <v>47</v>
-      </c>
-      <c r="P3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>49</v>
-      </c>
-      <c r="R3" t="s">
-        <v>50</v>
-      </c>
-      <c r="S3" t="s">
-        <v>51</v>
-      </c>
-      <c r="T3" t="s">
-        <v>52</v>
-      </c>
-      <c r="U3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V3" t="s">
-        <v>54</v>
-      </c>
-      <c r="W3" t="s">
-        <v>55</v>
-      </c>
-      <c r="X3" t="s">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="E4" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T4" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="Z3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA3" t="s">
+      <c r="U4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AB3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>65</v>
-      </c>
     </row>
-    <row r="4" spans="1:33">
-      <c r="A4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z4" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG4" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>100001</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D5" s="5">
         <v>3</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5">
+      <c r="E5" s="5">
         <v>1</v>
       </c>
+      <c r="F5" s="5"/>
       <c r="G5" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H5" s="5">
         <v>0</v>
       </c>
       <c r="I5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="5">
         <v>1</v>
       </c>
-      <c r="K5" s="5">
-        <v>1</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="M5" s="5">
+      <c r="K5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" s="5">
         <v>0</v>
       </c>
-      <c r="N5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
       <c r="O5" s="5">
         <v>0</v>
       </c>
@@ -1051,38 +1016,32 @@
         <v>0</v>
       </c>
       <c r="Q5" s="5">
-        <v>0</v>
-      </c>
-      <c r="R5" s="5">
         <v>1</v>
       </c>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5">
+      <c r="R5" s="5"/>
+      <c r="S5" s="5">
         <v>1</v>
       </c>
+      <c r="T5" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="U5" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="V5" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5" t="s">
-        <v>74</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5">
+      <c r="AB5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC5" s="5">
         <v>1</v>
       </c>
-      <c r="AF5" s="5"/>
-      <c r="AG5" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1092,12 +1051,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1105,12 +1064,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/xlsx/Item.xlsx
+++ b/bin/xlsx/Item.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\shoot\bin\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="75">
   <si>
     <t>singlePlusMax</t>
   </si>
@@ -101,12 +96,6 @@
     <t>equipActions</t>
   </si>
   <si>
-    <t>useActions</t>
-  </si>
-  <si>
-    <t>passEnterBag</t>
-  </si>
-  <si>
     <t>道具id</t>
   </si>
   <si>
@@ -185,12 +174,6 @@
     <t>装备功能(equip用)</t>
   </si>
   <si>
-    <t>使用功能(tool用)</t>
-  </si>
-  <si>
-    <t>是否跳过进包阶段(直接使用,tool用)</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -218,9 +201,6 @@
     <t>currency_coin</t>
   </si>
   <si>
-    <t>4,1,1</t>
-  </si>
-  <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -242,14 +222,65 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leaf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>useType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用功能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>box1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼盒1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,7 +410,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -421,7 +452,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -453,10 +484,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -488,7 +518,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -664,14 +693,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AB7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="AB1" sqref="AB1:AB1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
@@ -700,10 +729,9 @@
     <col min="26" max="26" width="16.125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="13.875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="18.5" customWidth="1"/>
-    <col min="29" max="29" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -717,7 +745,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -785,203 +813,194 @@
       <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="B3" t="s">
         <v>27</v>
       </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R3" t="s">
+        <v>42</v>
+      </c>
+      <c r="S3" t="s">
+        <v>43</v>
+      </c>
+      <c r="T3" t="s">
+        <v>44</v>
+      </c>
+      <c r="U3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V3" t="s">
+        <v>46</v>
+      </c>
+      <c r="W3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" t="s">
-        <v>40</v>
-      </c>
-      <c r="O3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>43</v>
-      </c>
-      <c r="R3" t="s">
-        <v>44</v>
-      </c>
-      <c r="S3" t="s">
-        <v>45</v>
-      </c>
-      <c r="T3" t="s">
-        <v>46</v>
-      </c>
-      <c r="U3" t="s">
-        <v>47</v>
-      </c>
-      <c r="V3" t="s">
-        <v>48</v>
-      </c>
-      <c r="W3" t="s">
-        <v>49</v>
-      </c>
-      <c r="X3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z3" t="s">
+    <row r="4" spans="1:28">
+      <c r="A4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="E4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AB3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>55</v>
+      <c r="U4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z4" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28">
       <c r="A5" s="7">
         <v>100001</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D5" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
@@ -1000,7 +1019,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L5" s="5">
         <v>0</v>
@@ -1023,24 +1042,157 @@
         <v>1</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="V5" s="5"/>
       <c r="W5" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
-      <c r="AB5" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC5" s="5">
-        <v>1</v>
+      <c r="AB5" s="8"/>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="7">
+        <v>100002</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5">
+        <v>1</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>1</v>
+      </c>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5">
+        <v>1</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="8"/>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" s="7">
+        <v>100003</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="5">
+        <v>3</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>1</v>
+      </c>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5">
+        <v>1</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1051,12 +1203,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1064,12 +1216,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/xlsx/Item.xlsx
+++ b/bin/xlsx/Item.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\shoot\bin\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="76">
   <si>
     <t>singlePlusMax</t>
   </si>
@@ -51,9 +56,6 @@
     <t>usePropLimit</t>
   </si>
   <si>
-    <t>limitGameLevel</t>
-  </si>
-  <si>
     <t>bindByGet</t>
   </si>
   <si>
@@ -127,9 +129,6 @@
   </si>
   <si>
     <t>道具使用次数</t>
-  </si>
-  <si>
-    <t>关卡解锁等级</t>
   </si>
   <si>
     <t>是否获得绑定 </t>
@@ -275,12 +274,24 @@
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>bigType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,7 +421,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -452,7 +463,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -484,9 +495,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -518,6 +530,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -693,32 +706,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1:AB1048576"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1"/>
-    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
+    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" customWidth="1"/>
+    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5" customWidth="1"/>
     <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.5" customWidth="1"/>
+    <col min="18" max="18" width="20.125" customWidth="1"/>
     <col min="19" max="19" width="10.5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="5.5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="8.5" bestFit="1" customWidth="1"/>
@@ -731,7 +745,7 @@
     <col min="28" max="28" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -741,290 +755,290 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3" t="s">
+        <v>42</v>
+      </c>
+      <c r="U3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V3" t="s">
+        <v>44</v>
+      </c>
+      <c r="W3" t="s">
+        <v>45</v>
+      </c>
+      <c r="X3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>41</v>
-      </c>
-      <c r="R3" t="s">
-        <v>42</v>
-      </c>
-      <c r="S3" t="s">
-        <v>43</v>
-      </c>
-      <c r="T3" t="s">
-        <v>44</v>
-      </c>
-      <c r="U3" t="s">
-        <v>45</v>
-      </c>
-      <c r="V3" t="s">
-        <v>46</v>
-      </c>
-      <c r="W3" t="s">
-        <v>47</v>
-      </c>
-      <c r="X3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z3" t="s">
+      <c r="G4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AA3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28">
-      <c r="A4" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>52</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Z4" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AB4" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>100001</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D5" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E5" s="5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5"/>
       <c r="H5" s="5">
         <v>0</v>
       </c>
       <c r="I5" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="5">
         <v>1</v>
       </c>
-      <c r="K5" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="L5" s="5">
-        <v>0</v>
-      </c>
-      <c r="M5" s="5"/>
+      <c r="K5" s="5">
+        <v>1</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
       <c r="N5" s="5">
         <v>0</v>
       </c>
@@ -1042,14 +1056,14 @@
         <v>1</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V5" s="5"/>
       <c r="W5" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
@@ -1057,15 +1071,15 @@
       <c r="AA5" s="5"/>
       <c r="AB5" s="8"/>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>100002</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
@@ -1073,26 +1087,28 @@
       <c r="E6" s="5">
         <v>1</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5"/>
       <c r="H6" s="5">
         <v>0</v>
       </c>
       <c r="I6" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="5">
         <v>1</v>
       </c>
-      <c r="K6" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="L6" s="5">
-        <v>0</v>
-      </c>
-      <c r="M6" s="5"/>
+      <c r="K6" s="5">
+        <v>1</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
       <c r="N6" s="5">
         <v>0</v>
       </c>
@@ -1110,14 +1126,14 @@
         <v>1</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V6" s="5"/>
       <c r="W6" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
@@ -1125,42 +1141,44 @@
       <c r="AA6" s="5"/>
       <c r="AB6" s="8"/>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>100003</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
         <v>3</v>
       </c>
-      <c r="E7" s="5">
-        <v>1</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5"/>
       <c r="H7" s="5">
         <v>0</v>
       </c>
       <c r="I7" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="5">
         <v>1</v>
       </c>
-      <c r="K7" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="L7" s="5">
-        <v>0</v>
-      </c>
-      <c r="M7" s="5"/>
+      <c r="K7" s="5">
+        <v>1</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
       <c r="N7" s="5">
         <v>0</v>
       </c>
@@ -1178,21 +1196,21 @@
         <v>1</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V7" s="5"/>
       <c r="W7" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
       <c r="AB7" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1203,12 +1221,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1216,12 +1234,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
